--- a/Code/Results/Cases/Case_4_109/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_109/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9805586578537164</v>
+        <v>1.015681041392796</v>
       </c>
       <c r="D2">
-        <v>1.002454872893485</v>
+        <v>1.021393378978528</v>
       </c>
       <c r="E2">
-        <v>0.9888717991707553</v>
+        <v>1.019290140991944</v>
       </c>
       <c r="F2">
-        <v>0.9563511237642618</v>
+        <v>1.014012632824848</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035784754565607</v>
+        <v>1.026184200431292</v>
       </c>
       <c r="J2">
-        <v>1.003336823343523</v>
+        <v>1.020905170532008</v>
       </c>
       <c r="K2">
-        <v>1.013880113058238</v>
+        <v>1.024230841344631</v>
       </c>
       <c r="L2">
-        <v>1.000488375898803</v>
+        <v>1.022133827375972</v>
       </c>
       <c r="M2">
-        <v>0.9684540184464582</v>
+        <v>1.016872060525165</v>
       </c>
       <c r="N2">
-        <v>1.0050517209952</v>
+        <v>1.011059126381076</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9852409764875329</v>
+        <v>1.016647697941538</v>
       </c>
       <c r="D3">
-        <v>1.005643791125458</v>
+        <v>1.022064461820585</v>
       </c>
       <c r="E3">
-        <v>0.9930244247493591</v>
+        <v>1.020203328897578</v>
       </c>
       <c r="F3">
-        <v>0.9638275105829029</v>
+        <v>1.01562297126405</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036655598807069</v>
+        <v>1.026295985943017</v>
       </c>
       <c r="J3">
-        <v>1.006142236713641</v>
+        <v>1.02150685719764</v>
       </c>
       <c r="K3">
-        <v>1.016204964336803</v>
+        <v>1.024708738261906</v>
       </c>
       <c r="L3">
-        <v>1.003747344360748</v>
+        <v>1.022852713641001</v>
       </c>
       <c r="M3">
-        <v>0.9749451481869457</v>
+        <v>1.018285014252692</v>
       </c>
       <c r="N3">
-        <v>1.00600244399449</v>
+        <v>1.011260816546666</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9882010817590611</v>
+        <v>1.017273150224194</v>
       </c>
       <c r="D4">
-        <v>1.00766168005897</v>
+        <v>1.022498435807685</v>
       </c>
       <c r="E4">
-        <v>0.995655135902589</v>
+        <v>1.020794555913367</v>
       </c>
       <c r="F4">
-        <v>0.968538107288243</v>
+        <v>1.016664789510343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037194238294049</v>
+        <v>1.026366821657224</v>
       </c>
       <c r="J4">
-        <v>1.007911497609802</v>
+        <v>1.021895586051009</v>
       </c>
       <c r="K4">
-        <v>1.017668506550769</v>
+        <v>1.025017031032965</v>
       </c>
       <c r="L4">
-        <v>1.005806284017844</v>
+        <v>1.023317591734026</v>
       </c>
       <c r="M4">
-        <v>0.9790316907201573</v>
+        <v>1.019198654896952</v>
       </c>
       <c r="N4">
-        <v>1.006601742502398</v>
+        <v>1.011391045713265</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9894295205664431</v>
+        <v>1.017536081422248</v>
       </c>
       <c r="D5">
-        <v>1.008499484431249</v>
+        <v>1.022680815320747</v>
       </c>
       <c r="E5">
-        <v>0.9967481561541186</v>
+        <v>1.021043187556605</v>
       </c>
       <c r="F5">
-        <v>0.9704896543269569</v>
+        <v>1.017102733396964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037414873498669</v>
+        <v>1.026396242384621</v>
       </c>
       <c r="J5">
-        <v>1.008644695271416</v>
+        <v>1.022058863585739</v>
       </c>
       <c r="K5">
-        <v>1.018274344436377</v>
+        <v>1.025146412450206</v>
       </c>
       <c r="L5">
-        <v>1.006660397229684</v>
+        <v>1.023512957322315</v>
       </c>
       <c r="M5">
-        <v>0.9807238727260109</v>
+        <v>1.019582602735359</v>
       </c>
       <c r="N5">
-        <v>1.006850023505091</v>
+        <v>1.011445727530876</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9896348624484538</v>
+        <v>1.017580228215438</v>
       </c>
       <c r="D6">
-        <v>1.008639549675362</v>
+        <v>1.022711433924122</v>
       </c>
       <c r="E6">
-        <v>0.996930936183692</v>
+        <v>1.021084938583123</v>
       </c>
       <c r="F6">
-        <v>0.970815685060465</v>
+        <v>1.017176264142053</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037451582424122</v>
+        <v>1.026401161218745</v>
       </c>
       <c r="J6">
-        <v>1.008767192511582</v>
+        <v>1.022086270159386</v>
       </c>
       <c r="K6">
-        <v>1.018375523200437</v>
+        <v>1.0251681229678</v>
       </c>
       <c r="L6">
-        <v>1.006803147230999</v>
+        <v>1.023545756011897</v>
       </c>
       <c r="M6">
-        <v>0.9810065235443109</v>
+        <v>1.019647060819014</v>
       </c>
       <c r="N6">
-        <v>1.006891499965133</v>
+        <v>1.011454904947492</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9882175581658565</v>
+        <v>1.017276663558336</v>
       </c>
       <c r="D7">
-        <v>1.007672915664912</v>
+        <v>1.022500873020519</v>
       </c>
       <c r="E7">
-        <v>0.9956697909971918</v>
+        <v>1.020797877827992</v>
       </c>
       <c r="F7">
-        <v>0.9685642949880326</v>
+        <v>1.016670641473721</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037197209076448</v>
+        <v>1.02636721618779</v>
       </c>
       <c r="J7">
-        <v>1.007921335746514</v>
+        <v>1.0218977683393</v>
       </c>
       <c r="K7">
-        <v>1.01767663843849</v>
+        <v>1.025018760717608</v>
       </c>
       <c r="L7">
-        <v>1.005817741177034</v>
+        <v>1.023320202490205</v>
       </c>
       <c r="M7">
-        <v>0.9790544013337614</v>
+        <v>1.019203785796562</v>
       </c>
       <c r="N7">
-        <v>1.006605074266232</v>
+        <v>1.011391776635794</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9821559237387212</v>
+        <v>1.016007735864013</v>
       </c>
       <c r="D8">
-        <v>1.003542257698492</v>
+        <v>1.021620228380762</v>
       </c>
       <c r="E8">
-        <v>0.9902872021238164</v>
+        <v>1.019598688091103</v>
       </c>
       <c r="F8">
-        <v>0.9589051582694147</v>
+        <v>1.01455689491909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036084295142538</v>
+        <v>1.026222288694713</v>
       </c>
       <c r="J8">
-        <v>1.004294718383138</v>
+        <v>1.021108638263952</v>
       </c>
       <c r="K8">
-        <v>1.014674459696882</v>
+        <v>1.024392543055433</v>
       </c>
       <c r="L8">
-        <v>1.00160036689985</v>
+        <v>1.022376838348921</v>
       </c>
       <c r="M8">
-        <v>0.9706721412951277</v>
+        <v>1.017349709510971</v>
       </c>
       <c r="N8">
-        <v>1.005376397180292</v>
+        <v>1.011127346047146</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9709075553546906</v>
+        <v>1.013771403448656</v>
       </c>
       <c r="D9">
-        <v>0.9958957282261246</v>
+        <v>1.020066440968794</v>
       </c>
       <c r="E9">
-        <v>0.9803443564681533</v>
+        <v>1.017488115213654</v>
       </c>
       <c r="F9">
-        <v>0.9408295900577522</v>
+        <v>1.01083055907835</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033925941449032</v>
+        <v>1.025955452500599</v>
       </c>
       <c r="J9">
-        <v>0.9975311921562261</v>
+        <v>1.019713464988378</v>
       </c>
       <c r="K9">
-        <v>1.009055747214093</v>
+        <v>1.023281887444924</v>
       </c>
       <c r="L9">
-        <v>0.9937645913858842</v>
+        <v>1.0207122877537</v>
       </c>
       <c r="M9">
-        <v>0.9549616233495496</v>
+        <v>1.014077489823508</v>
       </c>
       <c r="N9">
-        <v>1.003082935214837</v>
+        <v>1.010659257435882</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9629764554093794</v>
+        <v>1.012280269336972</v>
       </c>
       <c r="D10">
-        <v>0.9905219628142269</v>
+        <v>1.019029281675501</v>
       </c>
       <c r="E10">
-        <v>0.9733670656662372</v>
+        <v>1.016082778696856</v>
       </c>
       <c r="F10">
-        <v>0.9279431050739736</v>
+        <v>1.008344840033732</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032343835424667</v>
+        <v>1.025769871890303</v>
       </c>
       <c r="J10">
-        <v>0.9927401076138338</v>
+        <v>1.018780223759451</v>
       </c>
       <c r="K10">
-        <v>1.005064481116442</v>
+        <v>1.022536630978057</v>
       </c>
       <c r="L10">
-        <v>0.9882344323659884</v>
+        <v>1.019601081834512</v>
       </c>
       <c r="M10">
-        <v>0.9437478131990588</v>
+        <v>1.011892247195709</v>
       </c>
       <c r="N10">
-        <v>1.001457331971526</v>
+        <v>1.010345766462907</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9594268985407752</v>
+        <v>1.011634525663205</v>
       </c>
       <c r="D11">
-        <v>0.9881223536558514</v>
+        <v>1.018579877173483</v>
       </c>
       <c r="E11">
-        <v>0.9702528719031754</v>
+        <v>1.015474656584869</v>
       </c>
       <c r="F11">
-        <v>0.9221319520369221</v>
+        <v>1.007268054644173</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03162212732597</v>
+        <v>1.025687691776388</v>
       </c>
       <c r="J11">
-        <v>0.9905907050723357</v>
+        <v>1.018375374311113</v>
       </c>
       <c r="K11">
-        <v>1.003271795845385</v>
+        <v>1.022212784590583</v>
       </c>
       <c r="L11">
-        <v>0.9857584585544201</v>
+        <v>1.01911955693051</v>
       </c>
       <c r="M11">
-        <v>0.9386885959281773</v>
+        <v>1.010945045931104</v>
       </c>
       <c r="N11">
-        <v>1.000727903153118</v>
+        <v>1.01020968124544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9580898905187096</v>
+        <v>1.011394655995892</v>
       </c>
       <c r="D12">
-        <v>0.9872194175112392</v>
+        <v>1.018412902467208</v>
       </c>
       <c r="E12">
-        <v>0.9690811786339293</v>
+        <v>1.015248832455069</v>
       </c>
       <c r="F12">
-        <v>0.9199354843668474</v>
+        <v>1.006868013056006</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031348291720253</v>
+        <v>1.025656892746793</v>
       </c>
       <c r="J12">
-        <v>0.9897803227775214</v>
+        <v>1.018224882084235</v>
       </c>
       <c r="K12">
-        <v>1.002595638977803</v>
+        <v>1.022092321526469</v>
       </c>
       <c r="L12">
-        <v>0.9848257152163415</v>
+        <v>1.018940641853908</v>
       </c>
       <c r="M12">
-        <v>0.9367760678075596</v>
+        <v>1.010593059967005</v>
       </c>
       <c r="N12">
-        <v>1.000452875845625</v>
+        <v>1.010159081740274</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9583775433149432</v>
+        <v>1.011446109396574</v>
       </c>
       <c r="D13">
-        <v>0.9874136377397966</v>
+        <v>1.018448721178279</v>
       </c>
       <c r="E13">
-        <v>0.969333203725927</v>
+        <v>1.015297269809566</v>
       </c>
       <c r="F13">
-        <v>0.920408407160889</v>
+        <v>1.006953826875011</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031407295478446</v>
+        <v>1.025663511625532</v>
       </c>
       <c r="J13">
-        <v>0.9899547084891031</v>
+        <v>1.018257168303975</v>
       </c>
       <c r="K13">
-        <v>1.002741152006555</v>
+        <v>1.022118169050617</v>
       </c>
       <c r="L13">
-        <v>0.9850263969240124</v>
+        <v>1.018979022253383</v>
       </c>
       <c r="M13">
-        <v>0.9371878663249837</v>
+        <v>1.010668569190107</v>
       </c>
       <c r="N13">
-        <v>1.000512059273834</v>
+        <v>1.010169937833017</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9593167668064774</v>
+        <v>1.011614698205217</v>
       </c>
       <c r="D14">
-        <v>0.9880479578193574</v>
+        <v>1.018566075925743</v>
       </c>
       <c r="E14">
-        <v>0.9701563301821269</v>
+        <v>1.015455988679721</v>
       </c>
       <c r="F14">
-        <v>0.9219511853972968</v>
+        <v>1.007234988666689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03159961108419</v>
+        <v>1.025685151501154</v>
       </c>
       <c r="J14">
-        <v>0.9905239680354431</v>
+        <v>1.018362936886917</v>
       </c>
       <c r="K14">
-        <v>1.00321611772966</v>
+        <v>1.022202830586929</v>
       </c>
       <c r="L14">
-        <v>0.9856816291493146</v>
+        <v>1.01910476888459</v>
       </c>
       <c r="M14">
-        <v>0.9385312022093319</v>
+        <v>1.010915953825208</v>
       </c>
       <c r="N14">
-        <v>1.000705254174557</v>
+        <v>1.010205499723505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9598929576357901</v>
+        <v>1.011718569758437</v>
       </c>
       <c r="D15">
-        <v>0.9884372226194637</v>
+        <v>1.018638375991997</v>
       </c>
       <c r="E15">
-        <v>0.9706614746848796</v>
+        <v>1.015553788489796</v>
       </c>
       <c r="F15">
-        <v>0.9228966110039237</v>
+        <v>1.007408211488501</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031717331590725</v>
+        <v>1.025698448281867</v>
       </c>
       <c r="J15">
-        <v>0.9908730937694966</v>
+        <v>1.018428089398794</v>
       </c>
       <c r="K15">
-        <v>1.003507379672447</v>
+        <v>1.022254970548734</v>
       </c>
       <c r="L15">
-        <v>0.9860835829714483</v>
+        <v>1.019182238196351</v>
       </c>
       <c r="M15">
-        <v>0.9393543747659392</v>
+        <v>1.011068355163149</v>
       </c>
       <c r="N15">
-        <v>1.000823738742088</v>
+        <v>1.010227403764951</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9632094966428865</v>
+        <v>1.012323123618157</v>
       </c>
       <c r="D16">
-        <v>0.9906796274366745</v>
+        <v>1.01905910072077</v>
       </c>
       <c r="E16">
-        <v>0.9735717045085508</v>
+        <v>1.016123146117953</v>
       </c>
       <c r="F16">
-        <v>0.9283236355487381</v>
+        <v>1.008416292553791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032390939509164</v>
+        <v>1.025775287527434</v>
       </c>
       <c r="J16">
-        <v>0.9928811170025565</v>
+        <v>1.01880707644659</v>
       </c>
       <c r="K16">
-        <v>1.005182048845407</v>
+        <v>1.022558099462862</v>
       </c>
       <c r="L16">
-        <v>0.9883969710745282</v>
+        <v>1.019633031324793</v>
       </c>
       <c r="M16">
-        <v>0.9440790625934337</v>
+        <v>1.011955088691147</v>
       </c>
       <c r="N16">
-        <v>1.001505183148313</v>
+        <v>1.010354790787535</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9652581726467681</v>
+        <v>1.012702324251084</v>
       </c>
       <c r="D17">
-        <v>0.9920662915881647</v>
+        <v>1.019322928110658</v>
       </c>
       <c r="E17">
-        <v>0.9753716633029008</v>
+        <v>1.016480395445734</v>
       </c>
       <c r="F17">
-        <v>0.9316638146924714</v>
+        <v>1.009048508673776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032803492454312</v>
+        <v>1.025822998918898</v>
       </c>
       <c r="J17">
-        <v>0.9941201526465032</v>
+        <v>1.019044603933271</v>
       </c>
       <c r="K17">
-        <v>1.006214872292033</v>
+        <v>1.022747937556203</v>
       </c>
       <c r="L17">
-        <v>0.98982575067104</v>
+        <v>1.019915703842705</v>
       </c>
       <c r="M17">
-        <v>0.9469864100097931</v>
+        <v>1.012511047122735</v>
       </c>
       <c r="N17">
-        <v>1.001925631610534</v>
+        <v>1.010434605800501</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9664420904359023</v>
+        <v>1.012923498597032</v>
       </c>
       <c r="D18">
-        <v>0.9928681414431002</v>
+        <v>1.019476784452866</v>
       </c>
       <c r="E18">
-        <v>0.9764126481536115</v>
+        <v>1.016688811342569</v>
       </c>
       <c r="F18">
-        <v>0.93359001159439</v>
+        <v>1.009417226475149</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033040610395525</v>
+        <v>1.025850652314269</v>
       </c>
       <c r="J18">
-        <v>0.9948356960273838</v>
+        <v>1.019183077380497</v>
       </c>
       <c r="K18">
-        <v>1.006811126183973</v>
+        <v>1.022858556388981</v>
       </c>
       <c r="L18">
-        <v>0.9906513421240093</v>
+        <v>1.020080546709927</v>
       </c>
       <c r="M18">
-        <v>0.9486627762363523</v>
+        <v>1.012835234460911</v>
       </c>
       <c r="N18">
-        <v>1.00216842674702</v>
+        <v>1.010481127597472</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9668439382028133</v>
+        <v>1.012998912175219</v>
       </c>
       <c r="D19">
-        <v>0.9931403894306893</v>
+        <v>1.01952924043895</v>
       </c>
       <c r="E19">
-        <v>0.9767661154040563</v>
+        <v>1.016759882300399</v>
       </c>
       <c r="F19">
-        <v>0.9342431421823892</v>
+        <v>1.009542942624385</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033120872247068</v>
+        <v>1.025860051575862</v>
       </c>
       <c r="J19">
-        <v>0.9950784842035697</v>
+        <v>1.019230280995202</v>
       </c>
       <c r="K19">
-        <v>1.007013403062057</v>
+        <v>1.022896255807204</v>
       </c>
       <c r="L19">
-        <v>0.9909315497608472</v>
+        <v>1.020136747903806</v>
       </c>
       <c r="M19">
-        <v>0.9492311539451344</v>
+        <v>1.012945758250827</v>
       </c>
       <c r="N19">
-        <v>1.002250805995933</v>
+        <v>1.01049698474158</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9650395194563781</v>
+        <v>1.01266164033805</v>
       </c>
       <c r="D20">
-        <v>0.9919182411206066</v>
+        <v>1.019294624998949</v>
       </c>
       <c r="E20">
-        <v>0.9751794721273622</v>
+        <v>1.016442062002938</v>
       </c>
       <c r="F20">
-        <v>0.9313077501511898</v>
+        <v>1.008980682385804</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032759594993493</v>
+        <v>1.025817898126338</v>
       </c>
       <c r="J20">
-        <v>0.9939879621888561</v>
+        <v>1.019019126965166</v>
       </c>
       <c r="K20">
-        <v>1.00610470286286</v>
+        <v>1.022727581156469</v>
       </c>
       <c r="L20">
-        <v>0.9896732677877457</v>
+        <v>1.019885379403378</v>
       </c>
       <c r="M20">
-        <v>0.9466765086153511</v>
+        <v>1.012451407793811</v>
       </c>
       <c r="N20">
-        <v>1.001880776121295</v>
+        <v>1.010426045813653</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.959040711193652</v>
+        <v>1.011565053332758</v>
       </c>
       <c r="D21">
-        <v>0.987861492842766</v>
+        <v>1.018531519140836</v>
       </c>
       <c r="E21">
-        <v>0.9699143607671651</v>
+        <v>1.015409248288222</v>
       </c>
       <c r="F21">
-        <v>0.9214979509277629</v>
+        <v>1.007152195673163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03154314014925</v>
+        <v>1.025678786650903</v>
       </c>
       <c r="J21">
-        <v>0.9903566729707358</v>
+        <v>1.018331793801746</v>
       </c>
       <c r="K21">
-        <v>1.003076540829739</v>
+        <v>1.022177904625445</v>
       </c>
       <c r="L21">
-        <v>0.9854890471064108</v>
+        <v>1.019067741165219</v>
       </c>
       <c r="M21">
-        <v>0.9381365663423208</v>
+        <v>1.010843109498518</v>
       </c>
       <c r="N21">
-        <v>1.000648477987164</v>
+        <v>1.010195029052566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9551610352621319</v>
+        <v>1.010875517386032</v>
       </c>
       <c r="D22">
-        <v>0.9852432644861371</v>
+        <v>1.018051459013972</v>
       </c>
       <c r="E22">
-        <v>0.9665169643157875</v>
+        <v>1.014760221413961</v>
       </c>
       <c r="F22">
-        <v>0.9151087013324584</v>
+        <v>1.006002112629262</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030744828435942</v>
+        <v>1.025589738401995</v>
       </c>
       <c r="J22">
-        <v>0.9880036835977187</v>
+        <v>1.017898985474302</v>
       </c>
       <c r="K22">
-        <v>1.001112835017884</v>
+        <v>1.021831305465652</v>
       </c>
       <c r="L22">
-        <v>0.9827822452860869</v>
+        <v>1.018553339478627</v>
       </c>
       <c r="M22">
-        <v>0.9325728429015514</v>
+        <v>1.009831018690685</v>
       </c>
       <c r="N22">
-        <v>0.9998499058523057</v>
+        <v>1.010049482240851</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9572283995194916</v>
+        <v>1.011241060163401</v>
       </c>
       <c r="D23">
-        <v>0.9866378914201483</v>
+        <v>1.018305972988904</v>
       </c>
       <c r="E23">
-        <v>0.9683265875830054</v>
+        <v>1.015104250318219</v>
       </c>
       <c r="F23">
-        <v>0.9185179319976808</v>
+        <v>1.006611837731193</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031171294310644</v>
+        <v>1.025637094603005</v>
       </c>
       <c r="J23">
-        <v>0.9892579427665311</v>
+        <v>1.018128487570664</v>
       </c>
       <c r="K23">
-        <v>1.002159713254794</v>
+        <v>1.022015138625253</v>
       </c>
       <c r="L23">
-        <v>0.9842246777859051</v>
+        <v>1.018826064017027</v>
       </c>
       <c r="M23">
-        <v>0.9355416978716772</v>
+        <v>1.010367633699172</v>
       </c>
       <c r="N23">
-        <v>1.000275588035499</v>
+        <v>1.010126667578058</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9651383534494986</v>
+        <v>1.012680023668361</v>
       </c>
       <c r="D24">
-        <v>0.9919851602367376</v>
+        <v>1.019307414048568</v>
       </c>
       <c r="E24">
-        <v>0.975266342481105</v>
+        <v>1.01645938311682</v>
       </c>
       <c r="F24">
-        <v>0.9314687083656541</v>
+        <v>1.009011330297413</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032779441216891</v>
+        <v>1.025820203498253</v>
       </c>
       <c r="J24">
-        <v>0.9940477154534212</v>
+        <v>1.019030639133646</v>
       </c>
       <c r="K24">
-        <v>1.006154502723407</v>
+        <v>1.022736779678631</v>
       </c>
       <c r="L24">
-        <v>0.989742192256249</v>
+        <v>1.019899081820857</v>
       </c>
       <c r="M24">
-        <v>0.9468165995905387</v>
+        <v>1.012478356527729</v>
       </c>
       <c r="N24">
-        <v>1.001901051924613</v>
+        <v>1.010429913805</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9738876980302169</v>
+        <v>1.014349590024438</v>
       </c>
       <c r="D25">
-        <v>0.9979189370807717</v>
+        <v>1.020468363701089</v>
       </c>
       <c r="E25">
-        <v>0.9829730814459635</v>
+        <v>1.018033446788738</v>
       </c>
       <c r="F25">
-        <v>0.945639808382657</v>
+        <v>1.011794141095116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034508334144114</v>
+        <v>1.026025792316691</v>
       </c>
       <c r="J25">
-        <v>0.9993269741496092</v>
+        <v>1.020074700453915</v>
       </c>
       <c r="K25">
-        <v>1.010549645001462</v>
+        <v>1.023569868558026</v>
       </c>
       <c r="L25">
-        <v>0.9958415972063095</v>
+        <v>1.021142878484244</v>
       </c>
       <c r="M25">
-        <v>0.9591449986267949</v>
+        <v>1.014924075738579</v>
       </c>
       <c r="N25">
-        <v>1.003692068359407</v>
+        <v>1.010780521854494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_109/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_109/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015681041392796</v>
+        <v>0.9805586578537164</v>
       </c>
       <c r="D2">
-        <v>1.021393378978528</v>
+        <v>1.002454872893485</v>
       </c>
       <c r="E2">
-        <v>1.019290140991944</v>
+        <v>0.9888717991707554</v>
       </c>
       <c r="F2">
-        <v>1.014012632824848</v>
+        <v>0.9563511237642619</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026184200431292</v>
+        <v>1.035784754565607</v>
       </c>
       <c r="J2">
-        <v>1.020905170532008</v>
+        <v>1.003336823343523</v>
       </c>
       <c r="K2">
-        <v>1.024230841344631</v>
+        <v>1.013880113058238</v>
       </c>
       <c r="L2">
-        <v>1.022133827375972</v>
+        <v>1.000488375898803</v>
       </c>
       <c r="M2">
-        <v>1.016872060525165</v>
+        <v>0.9684540184464583</v>
       </c>
       <c r="N2">
-        <v>1.011059126381076</v>
+        <v>1.005051720995199</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016647697941538</v>
+        <v>0.9852409764875329</v>
       </c>
       <c r="D3">
-        <v>1.022064461820585</v>
+        <v>1.005643791125458</v>
       </c>
       <c r="E3">
-        <v>1.020203328897578</v>
+        <v>0.9930244247493591</v>
       </c>
       <c r="F3">
-        <v>1.01562297126405</v>
+        <v>0.9638275105829031</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026295985943017</v>
+        <v>1.036655598807069</v>
       </c>
       <c r="J3">
-        <v>1.02150685719764</v>
+        <v>1.006142236713641</v>
       </c>
       <c r="K3">
-        <v>1.024708738261906</v>
+        <v>1.016204964336803</v>
       </c>
       <c r="L3">
-        <v>1.022852713641001</v>
+        <v>1.003747344360748</v>
       </c>
       <c r="M3">
-        <v>1.018285014252692</v>
+        <v>0.9749451481869457</v>
       </c>
       <c r="N3">
-        <v>1.011260816546666</v>
+        <v>1.00600244399449</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017273150224194</v>
+        <v>0.9882010817590606</v>
       </c>
       <c r="D4">
-        <v>1.022498435807685</v>
+        <v>1.00766168005897</v>
       </c>
       <c r="E4">
-        <v>1.020794555913367</v>
+        <v>0.9956551359025886</v>
       </c>
       <c r="F4">
-        <v>1.016664789510343</v>
+        <v>0.9685381072882425</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026366821657224</v>
+        <v>1.037194238294048</v>
       </c>
       <c r="J4">
-        <v>1.021895586051009</v>
+        <v>1.007911497609802</v>
       </c>
       <c r="K4">
-        <v>1.025017031032965</v>
+        <v>1.017668506550769</v>
       </c>
       <c r="L4">
-        <v>1.023317591734026</v>
+        <v>1.005806284017844</v>
       </c>
       <c r="M4">
-        <v>1.019198654896952</v>
+        <v>0.9790316907201566</v>
       </c>
       <c r="N4">
-        <v>1.011391045713265</v>
+        <v>1.006601742502398</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017536081422248</v>
+        <v>0.9894295205664421</v>
       </c>
       <c r="D5">
-        <v>1.022680815320747</v>
+        <v>1.008499484431248</v>
       </c>
       <c r="E5">
-        <v>1.021043187556605</v>
+        <v>0.9967481561541176</v>
       </c>
       <c r="F5">
-        <v>1.017102733396964</v>
+        <v>0.9704896543269564</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026396242384621</v>
+        <v>1.037414873498668</v>
       </c>
       <c r="J5">
-        <v>1.022058863585739</v>
+        <v>1.008644695271415</v>
       </c>
       <c r="K5">
-        <v>1.025146412450206</v>
+        <v>1.018274344436376</v>
       </c>
       <c r="L5">
-        <v>1.023512957322315</v>
+        <v>1.006660397229683</v>
       </c>
       <c r="M5">
-        <v>1.019582602735359</v>
+        <v>0.9807238727260105</v>
       </c>
       <c r="N5">
-        <v>1.011445727530876</v>
+        <v>1.00685002350509</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017580228215438</v>
+        <v>0.9896348624484533</v>
       </c>
       <c r="D6">
-        <v>1.022711433924122</v>
+        <v>1.008639549675362</v>
       </c>
       <c r="E6">
-        <v>1.021084938583123</v>
+        <v>0.9969309361836918</v>
       </c>
       <c r="F6">
-        <v>1.017176264142053</v>
+        <v>0.9708156850604652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026401161218745</v>
+        <v>1.037451582424122</v>
       </c>
       <c r="J6">
-        <v>1.022086270159386</v>
+        <v>1.008767192511581</v>
       </c>
       <c r="K6">
-        <v>1.0251681229678</v>
+        <v>1.018375523200437</v>
       </c>
       <c r="L6">
-        <v>1.023545756011897</v>
+        <v>1.006803147230999</v>
       </c>
       <c r="M6">
-        <v>1.019647060819014</v>
+        <v>0.9810065235443109</v>
       </c>
       <c r="N6">
-        <v>1.011454904947492</v>
+        <v>1.006891499965133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017276663558336</v>
+        <v>0.9882175581658564</v>
       </c>
       <c r="D7">
-        <v>1.022500873020519</v>
+        <v>1.007672915664911</v>
       </c>
       <c r="E7">
-        <v>1.020797877827992</v>
+        <v>0.9956697909971913</v>
       </c>
       <c r="F7">
-        <v>1.016670641473721</v>
+        <v>0.968564294988032</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02636721618779</v>
+        <v>1.037197209076447</v>
       </c>
       <c r="J7">
-        <v>1.0218977683393</v>
+        <v>1.007921335746514</v>
       </c>
       <c r="K7">
-        <v>1.025018760717608</v>
+        <v>1.01767663843849</v>
       </c>
       <c r="L7">
-        <v>1.023320202490205</v>
+        <v>1.005817741177034</v>
       </c>
       <c r="M7">
-        <v>1.019203785796562</v>
+        <v>0.9790544013337608</v>
       </c>
       <c r="N7">
-        <v>1.011391776635794</v>
+        <v>1.006605074266232</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016007735864013</v>
+        <v>0.9821559237387206</v>
       </c>
       <c r="D8">
-        <v>1.021620228380762</v>
+        <v>1.003542257698491</v>
       </c>
       <c r="E8">
-        <v>1.019598688091103</v>
+        <v>0.9902872021238159</v>
       </c>
       <c r="F8">
-        <v>1.01455689491909</v>
+        <v>0.9589051582694146</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026222288694713</v>
+        <v>1.036084295142538</v>
       </c>
       <c r="J8">
-        <v>1.021108638263952</v>
+        <v>1.004294718383137</v>
       </c>
       <c r="K8">
-        <v>1.024392543055433</v>
+        <v>1.014674459696881</v>
       </c>
       <c r="L8">
-        <v>1.022376838348921</v>
+        <v>1.00160036689985</v>
       </c>
       <c r="M8">
-        <v>1.017349709510971</v>
+        <v>0.9706721412951277</v>
       </c>
       <c r="N8">
-        <v>1.011127346047146</v>
+        <v>1.005376397180292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013771403448656</v>
+        <v>0.970907555354691</v>
       </c>
       <c r="D9">
-        <v>1.020066440968794</v>
+        <v>0.995895728226125</v>
       </c>
       <c r="E9">
-        <v>1.017488115213654</v>
+        <v>0.9803443564681539</v>
       </c>
       <c r="F9">
-        <v>1.01083055907835</v>
+        <v>0.9408295900577529</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025955452500599</v>
+        <v>1.033925941449032</v>
       </c>
       <c r="J9">
-        <v>1.019713464988378</v>
+        <v>0.9975311921562265</v>
       </c>
       <c r="K9">
-        <v>1.023281887444924</v>
+        <v>1.009055747214093</v>
       </c>
       <c r="L9">
-        <v>1.0207122877537</v>
+        <v>0.9937645913858848</v>
       </c>
       <c r="M9">
-        <v>1.014077489823508</v>
+        <v>0.95496162334955</v>
       </c>
       <c r="N9">
-        <v>1.010659257435882</v>
+        <v>1.003082935214837</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012280269336972</v>
+        <v>0.9629764554093796</v>
       </c>
       <c r="D10">
-        <v>1.019029281675501</v>
+        <v>0.9905219628142272</v>
       </c>
       <c r="E10">
-        <v>1.016082778696856</v>
+        <v>0.9733670656662375</v>
       </c>
       <c r="F10">
-        <v>1.008344840033732</v>
+        <v>0.927943105073974</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025769871890303</v>
+        <v>1.032343835424667</v>
       </c>
       <c r="J10">
-        <v>1.018780223759451</v>
+        <v>0.9927401076138341</v>
       </c>
       <c r="K10">
-        <v>1.022536630978057</v>
+        <v>1.005064481116442</v>
       </c>
       <c r="L10">
-        <v>1.019601081834512</v>
+        <v>0.9882344323659886</v>
       </c>
       <c r="M10">
-        <v>1.011892247195709</v>
+        <v>0.9437478131990592</v>
       </c>
       <c r="N10">
-        <v>1.010345766462907</v>
+        <v>1.001457331971526</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011634525663205</v>
+        <v>0.9594268985407745</v>
       </c>
       <c r="D11">
-        <v>1.018579877173483</v>
+        <v>0.9881223536558508</v>
       </c>
       <c r="E11">
-        <v>1.015474656584869</v>
+        <v>0.9702528719031749</v>
       </c>
       <c r="F11">
-        <v>1.007268054644173</v>
+        <v>0.9221319520369213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025687691776388</v>
+        <v>1.03162212732597</v>
       </c>
       <c r="J11">
-        <v>1.018375374311113</v>
+        <v>0.990590705072335</v>
       </c>
       <c r="K11">
-        <v>1.022212784590583</v>
+        <v>1.003271795845384</v>
       </c>
       <c r="L11">
-        <v>1.01911955693051</v>
+        <v>0.9857584585544197</v>
       </c>
       <c r="M11">
-        <v>1.010945045931104</v>
+        <v>0.9386885959281767</v>
       </c>
       <c r="N11">
-        <v>1.01020968124544</v>
+        <v>1.000727903153117</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011394655995892</v>
+        <v>0.9580898905187103</v>
       </c>
       <c r="D12">
-        <v>1.018412902467208</v>
+        <v>0.9872194175112396</v>
       </c>
       <c r="E12">
-        <v>1.015248832455069</v>
+        <v>0.9690811786339302</v>
       </c>
       <c r="F12">
-        <v>1.006868013056006</v>
+        <v>0.9199354843668481</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025656892746793</v>
+        <v>1.031348291720254</v>
       </c>
       <c r="J12">
-        <v>1.018224882084235</v>
+        <v>0.989780322777522</v>
       </c>
       <c r="K12">
-        <v>1.022092321526469</v>
+        <v>1.002595638977803</v>
       </c>
       <c r="L12">
-        <v>1.018940641853908</v>
+        <v>0.9848257152163424</v>
       </c>
       <c r="M12">
-        <v>1.010593059967005</v>
+        <v>0.9367760678075605</v>
       </c>
       <c r="N12">
-        <v>1.010159081740274</v>
+        <v>1.000452875845626</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011446109396574</v>
+        <v>0.9583775433149442</v>
       </c>
       <c r="D13">
-        <v>1.018448721178279</v>
+        <v>0.9874136377397978</v>
       </c>
       <c r="E13">
-        <v>1.015297269809566</v>
+        <v>0.9693332037259282</v>
       </c>
       <c r="F13">
-        <v>1.006953826875011</v>
+        <v>0.9204084071608902</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025663511625532</v>
+        <v>1.031407295478447</v>
       </c>
       <c r="J13">
-        <v>1.018257168303975</v>
+        <v>0.9899547084891039</v>
       </c>
       <c r="K13">
-        <v>1.022118169050617</v>
+        <v>1.002741152006556</v>
       </c>
       <c r="L13">
-        <v>1.018979022253383</v>
+        <v>0.9850263969240135</v>
       </c>
       <c r="M13">
-        <v>1.010668569190107</v>
+        <v>0.9371878663249849</v>
       </c>
       <c r="N13">
-        <v>1.010169937833017</v>
+        <v>1.000512059273834</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011614698205217</v>
+        <v>0.9593167668064776</v>
       </c>
       <c r="D14">
-        <v>1.018566075925743</v>
+        <v>0.9880479578193575</v>
       </c>
       <c r="E14">
-        <v>1.015455988679721</v>
+        <v>0.9701563301821274</v>
       </c>
       <c r="F14">
-        <v>1.007234988666689</v>
+        <v>0.9219511853972963</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025685151501154</v>
+        <v>1.03159961108419</v>
       </c>
       <c r="J14">
-        <v>1.018362936886917</v>
+        <v>0.9905239680354431</v>
       </c>
       <c r="K14">
-        <v>1.022202830586929</v>
+        <v>1.00321611772966</v>
       </c>
       <c r="L14">
-        <v>1.01910476888459</v>
+        <v>0.9856816291493149</v>
       </c>
       <c r="M14">
-        <v>1.010915953825208</v>
+        <v>0.9385312022093316</v>
       </c>
       <c r="N14">
-        <v>1.010205499723505</v>
+        <v>1.000705254174557</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011718569758437</v>
+        <v>0.9598929576357903</v>
       </c>
       <c r="D15">
-        <v>1.018638375991997</v>
+        <v>0.9884372226194635</v>
       </c>
       <c r="E15">
-        <v>1.015553788489796</v>
+        <v>0.9706614746848796</v>
       </c>
       <c r="F15">
-        <v>1.007408211488501</v>
+        <v>0.9228966110039246</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025698448281867</v>
+        <v>1.031717331590724</v>
       </c>
       <c r="J15">
-        <v>1.018428089398794</v>
+        <v>0.9908730937694967</v>
       </c>
       <c r="K15">
-        <v>1.022254970548734</v>
+        <v>1.003507379672447</v>
       </c>
       <c r="L15">
-        <v>1.019182238196351</v>
+        <v>0.9860835829714485</v>
       </c>
       <c r="M15">
-        <v>1.011068355163149</v>
+        <v>0.93935437476594</v>
       </c>
       <c r="N15">
-        <v>1.010227403764951</v>
+        <v>1.000823738742088</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012323123618157</v>
+        <v>0.9632094966428878</v>
       </c>
       <c r="D16">
-        <v>1.01905910072077</v>
+        <v>0.9906796274366754</v>
       </c>
       <c r="E16">
-        <v>1.016123146117953</v>
+        <v>0.9735717045085522</v>
       </c>
       <c r="F16">
-        <v>1.008416292553791</v>
+        <v>0.9283236355487396</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025775287527434</v>
+        <v>1.032390939509164</v>
       </c>
       <c r="J16">
-        <v>1.01880707644659</v>
+        <v>0.9928811170025577</v>
       </c>
       <c r="K16">
-        <v>1.022558099462862</v>
+        <v>1.005182048845408</v>
       </c>
       <c r="L16">
-        <v>1.019633031324793</v>
+        <v>0.9883969710745295</v>
       </c>
       <c r="M16">
-        <v>1.011955088691147</v>
+        <v>0.9440790625934352</v>
       </c>
       <c r="N16">
-        <v>1.010354790787535</v>
+        <v>1.001505183148313</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012702324251084</v>
+        <v>0.9652581726467672</v>
       </c>
       <c r="D17">
-        <v>1.019322928110658</v>
+        <v>0.9920662915881643</v>
       </c>
       <c r="E17">
-        <v>1.016480395445734</v>
+        <v>0.9753716633028997</v>
       </c>
       <c r="F17">
-        <v>1.009048508673776</v>
+        <v>0.9316638146924708</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025822998918898</v>
+        <v>1.032803492454311</v>
       </c>
       <c r="J17">
-        <v>1.019044603933271</v>
+        <v>0.9941201526465024</v>
       </c>
       <c r="K17">
-        <v>1.022747937556203</v>
+        <v>1.006214872292032</v>
       </c>
       <c r="L17">
-        <v>1.019915703842705</v>
+        <v>0.989825750671039</v>
       </c>
       <c r="M17">
-        <v>1.012511047122735</v>
+        <v>0.9469864100097924</v>
       </c>
       <c r="N17">
-        <v>1.010434605800501</v>
+        <v>1.001925631610534</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012923498597032</v>
+        <v>0.9664420904359022</v>
       </c>
       <c r="D18">
-        <v>1.019476784452866</v>
+        <v>0.9928681414431003</v>
       </c>
       <c r="E18">
-        <v>1.016688811342569</v>
+        <v>0.9764126481536114</v>
       </c>
       <c r="F18">
-        <v>1.009417226475149</v>
+        <v>0.9335900115943895</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025850652314269</v>
+        <v>1.033040610395525</v>
       </c>
       <c r="J18">
-        <v>1.019183077380497</v>
+        <v>0.9948356960273835</v>
       </c>
       <c r="K18">
-        <v>1.022858556388981</v>
+        <v>1.006811126183973</v>
       </c>
       <c r="L18">
-        <v>1.020080546709927</v>
+        <v>0.9906513421240092</v>
       </c>
       <c r="M18">
-        <v>1.012835234460911</v>
+        <v>0.948662776236352</v>
       </c>
       <c r="N18">
-        <v>1.010481127597472</v>
+        <v>1.00216842674702</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012998912175219</v>
+        <v>0.9668439382028132</v>
       </c>
       <c r="D19">
-        <v>1.01952924043895</v>
+        <v>0.9931403894306893</v>
       </c>
       <c r="E19">
-        <v>1.016759882300399</v>
+        <v>0.976766115404056</v>
       </c>
       <c r="F19">
-        <v>1.009542942624385</v>
+        <v>0.9342431421823887</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025860051575862</v>
+        <v>1.033120872247068</v>
       </c>
       <c r="J19">
-        <v>1.019230280995202</v>
+        <v>0.9950784842035696</v>
       </c>
       <c r="K19">
-        <v>1.022896255807204</v>
+        <v>1.007013403062057</v>
       </c>
       <c r="L19">
-        <v>1.020136747903806</v>
+        <v>0.9909315497608467</v>
       </c>
       <c r="M19">
-        <v>1.012945758250827</v>
+        <v>0.9492311539451338</v>
       </c>
       <c r="N19">
-        <v>1.01049698474158</v>
+        <v>1.002250805995933</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01266164033805</v>
+        <v>0.9650395194563784</v>
       </c>
       <c r="D20">
-        <v>1.019294624998949</v>
+        <v>0.9919182411206066</v>
       </c>
       <c r="E20">
-        <v>1.016442062002938</v>
+        <v>0.9751794721273624</v>
       </c>
       <c r="F20">
-        <v>1.008980682385804</v>
+        <v>0.9313077501511906</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025817898126338</v>
+        <v>1.032759594993493</v>
       </c>
       <c r="J20">
-        <v>1.019019126965166</v>
+        <v>0.9939879621888562</v>
       </c>
       <c r="K20">
-        <v>1.022727581156469</v>
+        <v>1.00610470286286</v>
       </c>
       <c r="L20">
-        <v>1.019885379403378</v>
+        <v>0.989673267787746</v>
       </c>
       <c r="M20">
-        <v>1.012451407793811</v>
+        <v>0.9466765086153519</v>
       </c>
       <c r="N20">
-        <v>1.010426045813653</v>
+        <v>1.001880776121295</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011565053332758</v>
+        <v>0.9590407111936518</v>
       </c>
       <c r="D21">
-        <v>1.018531519140836</v>
+        <v>0.987861492842766</v>
       </c>
       <c r="E21">
-        <v>1.015409248288222</v>
+        <v>0.969914360767165</v>
       </c>
       <c r="F21">
-        <v>1.007152195673163</v>
+        <v>0.9214979509277629</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025678786650903</v>
+        <v>1.03154314014925</v>
       </c>
       <c r="J21">
-        <v>1.018331793801746</v>
+        <v>0.9903566729707358</v>
       </c>
       <c r="K21">
-        <v>1.022177904625445</v>
+        <v>1.003076540829739</v>
       </c>
       <c r="L21">
-        <v>1.019067741165219</v>
+        <v>0.9854890471064107</v>
       </c>
       <c r="M21">
-        <v>1.010843109498518</v>
+        <v>0.9381365663423208</v>
       </c>
       <c r="N21">
-        <v>1.010195029052566</v>
+        <v>1.000648477987164</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010875517386032</v>
+        <v>0.9551610352621319</v>
       </c>
       <c r="D22">
-        <v>1.018051459013972</v>
+        <v>0.985243264486137</v>
       </c>
       <c r="E22">
-        <v>1.014760221413961</v>
+        <v>0.9665169643157875</v>
       </c>
       <c r="F22">
-        <v>1.006002112629262</v>
+        <v>0.9151087013324576</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025589738401995</v>
+        <v>1.030744828435942</v>
       </c>
       <c r="J22">
-        <v>1.017898985474302</v>
+        <v>0.9880036835977187</v>
       </c>
       <c r="K22">
-        <v>1.021831305465652</v>
+        <v>1.001112835017884</v>
       </c>
       <c r="L22">
-        <v>1.018553339478627</v>
+        <v>0.9827822452860868</v>
       </c>
       <c r="M22">
-        <v>1.009831018690685</v>
+        <v>0.9325728429015506</v>
       </c>
       <c r="N22">
-        <v>1.010049482240851</v>
+        <v>0.9998499058523057</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011241060163401</v>
+        <v>0.957228399519491</v>
       </c>
       <c r="D23">
-        <v>1.018305972988904</v>
+        <v>0.9866378914201474</v>
       </c>
       <c r="E23">
-        <v>1.015104250318219</v>
+        <v>0.9683265875830046</v>
       </c>
       <c r="F23">
-        <v>1.006611837731193</v>
+        <v>0.9185179319976794</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025637094603005</v>
+        <v>1.031171294310644</v>
       </c>
       <c r="J23">
-        <v>1.018128487570664</v>
+        <v>0.9892579427665306</v>
       </c>
       <c r="K23">
-        <v>1.022015138625253</v>
+        <v>1.002159713254793</v>
       </c>
       <c r="L23">
-        <v>1.018826064017027</v>
+        <v>0.9842246777859043</v>
       </c>
       <c r="M23">
-        <v>1.010367633699172</v>
+        <v>0.935541697871676</v>
       </c>
       <c r="N23">
-        <v>1.010126667578058</v>
+        <v>1.000275588035499</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.012680023668361</v>
+        <v>0.9651383534494988</v>
       </c>
       <c r="D24">
-        <v>1.019307414048568</v>
+        <v>0.9919851602367378</v>
       </c>
       <c r="E24">
-        <v>1.01645938311682</v>
+        <v>0.9752663424811053</v>
       </c>
       <c r="F24">
-        <v>1.009011330297413</v>
+        <v>0.931468708365654</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025820203498253</v>
+        <v>1.032779441216891</v>
       </c>
       <c r="J24">
-        <v>1.019030639133646</v>
+        <v>0.9940477154534213</v>
       </c>
       <c r="K24">
-        <v>1.022736779678631</v>
+        <v>1.006154502723407</v>
       </c>
       <c r="L24">
-        <v>1.019899081820857</v>
+        <v>0.9897421922562493</v>
       </c>
       <c r="M24">
-        <v>1.012478356527729</v>
+        <v>0.9468165995905384</v>
       </c>
       <c r="N24">
-        <v>1.010429913805</v>
+        <v>1.001901051924613</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014349590024438</v>
+        <v>0.973887698030217</v>
       </c>
       <c r="D25">
-        <v>1.020468363701089</v>
+        <v>0.9979189370807714</v>
       </c>
       <c r="E25">
-        <v>1.018033446788738</v>
+        <v>0.9829730814459633</v>
       </c>
       <c r="F25">
-        <v>1.011794141095116</v>
+        <v>0.9456398083826573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026025792316691</v>
+        <v>1.034508334144114</v>
       </c>
       <c r="J25">
-        <v>1.020074700453915</v>
+        <v>0.9993269741496091</v>
       </c>
       <c r="K25">
-        <v>1.023569868558026</v>
+        <v>1.010549645001462</v>
       </c>
       <c r="L25">
-        <v>1.021142878484244</v>
+        <v>0.995841597206309</v>
       </c>
       <c r="M25">
-        <v>1.014924075738579</v>
+        <v>0.959144998626795</v>
       </c>
       <c r="N25">
-        <v>1.010780521854494</v>
+        <v>1.003692068359407</v>
       </c>
     </row>
   </sheetData>
